--- a/Code/Results/Cases/Case_4_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.187461388624428</v>
+        <v>0.4480592728037891</v>
       </c>
       <c r="C2">
-        <v>0.1878067761344795</v>
+        <v>0.05689896751667334</v>
       </c>
       <c r="D2">
-        <v>0.1998408008075927</v>
+        <v>0.07858837496944204</v>
       </c>
       <c r="E2">
-        <v>1.385509524485087</v>
+        <v>0.4132022044686465</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007955595505778199</v>
+        <v>0.002439320690758406</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.278190798185449</v>
+        <v>0.428420881401621</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7112854979643259</v>
+        <v>1.483451473734611</v>
       </c>
       <c r="O2">
-        <v>2.180914144904364</v>
+        <v>3.098667715785666</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.028432008216271</v>
+        <v>0.4037757052505526</v>
       </c>
       <c r="C3">
-        <v>0.1649393676224093</v>
+        <v>0.05005304256543752</v>
       </c>
       <c r="D3">
-        <v>0.1731420184150778</v>
+        <v>0.07127684251783251</v>
       </c>
       <c r="E3">
-        <v>1.18937903660688</v>
+        <v>0.3605282455053498</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008003771146558952</v>
+        <v>0.00244236072053212</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.10750513833267</v>
+        <v>0.3799761155893862</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7542565655947548</v>
+        <v>1.500844144952591</v>
       </c>
       <c r="O3">
-        <v>2.054332854092678</v>
+        <v>3.089321637985989</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9314701910816439</v>
+        <v>0.3767124667835162</v>
       </c>
       <c r="C4">
-        <v>0.1509603385006955</v>
+        <v>0.04583028563760649</v>
       </c>
       <c r="D4">
-        <v>0.1569290568087496</v>
+        <v>0.0668227801316732</v>
       </c>
       <c r="E4">
-        <v>1.071219308187139</v>
+        <v>0.3282780526915587</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008034200986305703</v>
+        <v>0.002444325254653591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.003357086614869</v>
+        <v>0.3502968897492735</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7818789086038933</v>
+        <v>1.512073873888571</v>
       </c>
       <c r="O4">
-        <v>1.981564133385177</v>
+        <v>3.085493650046459</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8921007940151355</v>
+        <v>0.3657160698450639</v>
       </c>
       <c r="C5">
-        <v>0.145274840934789</v>
+        <v>0.04410460447228104</v>
       </c>
       <c r="D5">
-        <v>0.150361716864694</v>
+        <v>0.06501655246559324</v>
       </c>
       <c r="E5">
-        <v>1.023551471255502</v>
+        <v>0.3151571629653631</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008046822077443701</v>
+        <v>0.002445150526642396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9610494565103807</v>
+        <v>0.3382190719133575</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7934358827746451</v>
+        <v>1.516788368825747</v>
       </c>
       <c r="O5">
-        <v>1.953067415488334</v>
+        <v>3.084413133244681</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8855713997195949</v>
+        <v>0.3638920691935539</v>
       </c>
       <c r="C6">
-        <v>0.1443313139002953</v>
+        <v>0.04381776174791696</v>
       </c>
       <c r="D6">
-        <v>0.1492734441376342</v>
+        <v>0.06471716288500318</v>
       </c>
       <c r="E6">
-        <v>1.0156630597602</v>
+        <v>0.3129796858374618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008048931324052871</v>
+        <v>0.002445289057009643</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9540315129627288</v>
+        <v>0.3362145715712757</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7953727697966144</v>
+        <v>1.517579555016024</v>
       </c>
       <c r="O6">
-        <v>1.948402976080445</v>
+        <v>3.084262640892462</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9309386973831693</v>
+        <v>0.3765640353935282</v>
       </c>
       <c r="C7">
-        <v>0.1508836226803965</v>
+        <v>0.04580703224610261</v>
       </c>
       <c r="D7">
-        <v>0.1568403344625011</v>
+        <v>0.06679838495688273</v>
       </c>
       <c r="E7">
-        <v>1.070574595465558</v>
+        <v>0.3281010157518836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008034370296627617</v>
+        <v>0.002444336284352699</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.002786009550135</v>
+        <v>0.3501339362926785</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7820335662477618</v>
+        <v>1.512136895497928</v>
       </c>
       <c r="O7">
-        <v>1.981175243867852</v>
+        <v>3.085477138011157</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.132468582330972</v>
+        <v>0.4327640008776825</v>
       </c>
       <c r="C8">
-        <v>0.1799065142428873</v>
+        <v>0.05454249519971199</v>
       </c>
       <c r="D8">
-        <v>0.190594086881319</v>
+        <v>0.07606002570723547</v>
       </c>
       <c r="E8">
-        <v>1.317359200384118</v>
+        <v>0.3950200837645355</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007972034449369739</v>
+        <v>0.002440348612912386</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.219183434907734</v>
+        <v>0.4117034584250803</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7258383689855528</v>
+        <v>1.489334107619165</v>
       </c>
       <c r="O8">
-        <v>2.136185923526455</v>
+        <v>3.095048038384107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.534491002948755</v>
+        <v>0.5439796911210806</v>
       </c>
       <c r="C9">
-        <v>0.2375310503362584</v>
+        <v>0.07152072046636704</v>
       </c>
       <c r="D9">
-        <v>0.2584956848155002</v>
+        <v>0.09450384746519092</v>
       </c>
       <c r="E9">
-        <v>1.823611296630048</v>
+        <v>0.5270626341443148</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007856194029606245</v>
+        <v>0.002433302291184936</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.650252746473598</v>
+        <v>0.5329673495053555</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6259767220327177</v>
+        <v>1.448992527284084</v>
       </c>
       <c r="O9">
-        <v>2.483782084259161</v>
+        <v>3.12902664994391</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.836176157581292</v>
+        <v>0.626312568815905</v>
       </c>
       <c r="C10">
-        <v>0.2806458935207132</v>
+        <v>0.08390509927934886</v>
       </c>
       <c r="D10">
-        <v>0.30985220114367</v>
+        <v>0.1082306247403295</v>
       </c>
       <c r="E10">
-        <v>2.215959117801177</v>
+        <v>0.6246985393689783</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007774464558890723</v>
+        <v>0.002428591783212716</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.973408774407119</v>
+        <v>0.6223930653313516</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.55968462771623</v>
+        <v>1.422027968160325</v>
       </c>
       <c r="O10">
-        <v>2.772344770567656</v>
+        <v>3.163341697906418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.975330772779756</v>
+        <v>0.6639055258974906</v>
       </c>
       <c r="C11">
-        <v>0.3005164341627733</v>
+        <v>0.08952039028959291</v>
       </c>
       <c r="D11">
-        <v>0.3336393108485538</v>
+        <v>0.1145145458197874</v>
       </c>
       <c r="E11">
-        <v>2.400642896263975</v>
+        <v>0.6692794292695652</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007737887405752411</v>
+        <v>0.002426549039695274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.122410496808101</v>
+        <v>0.6631507444783722</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5312552526086094</v>
+        <v>1.41034345571968</v>
       </c>
       <c r="O11">
-        <v>2.912467233716001</v>
+        <v>3.181000559544287</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.028350317542561</v>
+        <v>0.6781610370887279</v>
       </c>
       <c r="C12">
-        <v>0.3080861429770039</v>
+        <v>0.09164414064673565</v>
       </c>
       <c r="D12">
-        <v>0.3427175208211821</v>
+        <v>0.1168998393693528</v>
       </c>
       <c r="E12">
-        <v>2.471640408062569</v>
+        <v>0.6861870194360193</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007724111114961059</v>
+        <v>0.002425789815751684</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.179175321160869</v>
+        <v>0.6785958202061977</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5207562684848881</v>
+        <v>1.406002676137067</v>
       </c>
       <c r="O12">
-        <v>2.966954634138176</v>
+        <v>3.187983419499744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.016916329601628</v>
+        <v>0.675089976282095</v>
       </c>
       <c r="C13">
-        <v>0.3064537214872161</v>
+        <v>0.09118687017169691</v>
       </c>
       <c r="D13">
-        <v>0.3407590677209527</v>
+        <v>0.1163858694477256</v>
       </c>
       <c r="E13">
-        <v>2.456299645052098</v>
+        <v>0.6825444901209181</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007727074967425863</v>
+        <v>0.002425952692556228</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.166933905642964</v>
+        <v>0.6752689581234108</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5230052449737421</v>
+        <v>1.406933805879593</v>
       </c>
       <c r="O13">
-        <v>2.955153761382945</v>
+        <v>3.186466358873474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.979685914822085</v>
+        <v>0.6650779379752407</v>
       </c>
       <c r="C14">
-        <v>0.3011382432316907</v>
+        <v>0.08969516532290811</v>
       </c>
       <c r="D14">
-        <v>0.3343847092950369</v>
+        <v>0.1147106708065451</v>
       </c>
       <c r="E14">
-        <v>2.406461568665108</v>
+        <v>0.6706698992048246</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007736752597999493</v>
+        <v>0.002426486291168384</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.127073406159155</v>
+        <v>0.6644211997873981</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5303860406623286</v>
+        <v>1.409984654527314</v>
       </c>
       <c r="O14">
-        <v>2.916920430019047</v>
+        <v>3.181569107681071</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.956925045010479</v>
+        <v>0.6589478589540647</v>
       </c>
       <c r="C15">
-        <v>0.2978885001008251</v>
+        <v>0.0887811097635165</v>
       </c>
       <c r="D15">
-        <v>0.3304897145344512</v>
+        <v>0.1136853074358015</v>
       </c>
       <c r="E15">
-        <v>2.376078018921206</v>
+        <v>0.6633997836101173</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007742689777595377</v>
+        <v>0.002426814998438354</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.102703825695244</v>
+        <v>0.6577780673564462</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.534942283526739</v>
+        <v>1.411864319471892</v>
       </c>
       <c r="O15">
-        <v>2.893691943698371</v>
+        <v>3.178607962454578</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.827124723429677</v>
+        <v>0.6238585703800652</v>
       </c>
       <c r="C16">
-        <v>0.2793531613790776</v>
+        <v>0.08353775697099763</v>
       </c>
       <c r="D16">
-        <v>0.3083069939844734</v>
+        <v>0.1078207533576858</v>
       </c>
       <c r="E16">
-        <v>2.204028414350617</v>
+        <v>0.6217885746849277</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007776866088265444</v>
+        <v>0.002428727289110012</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.963715820463165</v>
+        <v>0.6197310043177708</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5615788273061462</v>
+        <v>1.422803305362187</v>
       </c>
       <c r="O16">
-        <v>2.763378304073285</v>
+        <v>3.162228980456632</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.748020651842012</v>
+        <v>0.6023679964891642</v>
       </c>
       <c r="C17">
-        <v>0.2680537575549522</v>
+        <v>0.08031641836734593</v>
       </c>
       <c r="D17">
-        <v>0.2948138660241</v>
+        <v>0.1042331832064036</v>
       </c>
       <c r="E17">
-        <v>2.10018404313746</v>
+        <v>0.5963052844230674</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007797978269085887</v>
+        <v>0.002429926000061284</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.878999149519842</v>
+        <v>0.5964101242134632</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5783742730268528</v>
+        <v>1.429663193938524</v>
       </c>
       <c r="O17">
-        <v>2.685806588882883</v>
+        <v>3.152706610919921</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.702699245004254</v>
+        <v>0.5900203093962091</v>
       </c>
       <c r="C18">
-        <v>0.2615783234260505</v>
+        <v>0.07846185465092503</v>
       </c>
       <c r="D18">
-        <v>0.2870923402297763</v>
+        <v>0.102173428174865</v>
       </c>
       <c r="E18">
-        <v>2.04102792234734</v>
+        <v>0.5816634618532817</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007810178882662093</v>
+        <v>0.002430624892210231</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.830456713809298</v>
+        <v>0.5830038693969186</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5881959501342315</v>
+        <v>1.4336635682318</v>
       </c>
       <c r="O18">
-        <v>2.642012701512158</v>
+        <v>3.147422362354519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.687383209478838</v>
+        <v>0.5858418534452028</v>
       </c>
       <c r="C19">
-        <v>0.2593896874611801</v>
+        <v>0.07783363293845014</v>
       </c>
       <c r="D19">
-        <v>0.2844844511219264</v>
+        <v>0.1014766687985258</v>
       </c>
       <c r="E19">
-        <v>2.021092179801343</v>
+        <v>0.5767085945937396</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007814320008457251</v>
+        <v>0.002430863146245922</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.814051189418052</v>
+        <v>0.5784659989246563</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5915485925708559</v>
+        <v>1.43502742231189</v>
       </c>
       <c r="O19">
-        <v>2.62732184866195</v>
+        <v>3.145666277434827</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.756422740173747</v>
+        <v>0.6046543477949058</v>
       </c>
       <c r="C20">
-        <v>0.2692540911572365</v>
+        <v>0.0806595148461895</v>
       </c>
       <c r="D20">
-        <v>0.2962460927202955</v>
+        <v>0.104614700957967</v>
       </c>
       <c r="E20">
-        <v>2.111178053165006</v>
+        <v>0.5990164069219617</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000779572497880482</v>
+        <v>0.00242979742024371</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.887997931115052</v>
+        <v>0.5988919171689986</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5765695406082294</v>
+        <v>1.428927279236945</v>
       </c>
       <c r="O20">
-        <v>2.693977964445196</v>
+        <v>3.153700323970554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.990612159922449</v>
+        <v>0.6680181781960641</v>
       </c>
       <c r="C21">
-        <v>0.3026982323435021</v>
+        <v>0.09013338671294946</v>
       </c>
       <c r="D21">
-        <v>0.3362550182647936</v>
+        <v>0.1152025621294968</v>
       </c>
       <c r="E21">
-        <v>2.421069933892369</v>
+        <v>0.6741570394139984</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007733908117831408</v>
+        <v>0.002426329172390309</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.138771683467041</v>
+        <v>0.6676071509722306</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5282107319514324</v>
+        <v>1.409086267679022</v>
       </c>
       <c r="O21">
-        <v>2.92811048289326</v>
+        <v>3.182999510472996</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.145587872897181</v>
+        <v>0.7095458748505052</v>
       </c>
       <c r="C22">
-        <v>0.3248236997195022</v>
+        <v>0.0963097362187284</v>
       </c>
       <c r="D22">
-        <v>0.362819440719278</v>
+        <v>0.1221556287339212</v>
       </c>
       <c r="E22">
-        <v>2.629887457330739</v>
+        <v>0.7234169304066143</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007693936049666227</v>
+        <v>0.002424145898990014</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.304684564702313</v>
+        <v>0.712580753773409</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4981692738180783</v>
+        <v>1.396608114160479</v>
       </c>
       <c r="O22">
-        <v>3.089525064187995</v>
+        <v>3.203873134691946</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.062681156117208</v>
+        <v>0.6873712204096307</v>
       </c>
       <c r="C23">
-        <v>0.3129874592479496</v>
+        <v>0.09301470507438125</v>
       </c>
       <c r="D23">
-        <v>0.3486000480328499</v>
+        <v>0.1184415928086935</v>
       </c>
       <c r="E23">
-        <v>2.517800096996979</v>
+        <v>0.6971115273134529</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000771523493152409</v>
+        <v>0.002425303543885106</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.215929671155749</v>
+        <v>0.6885716553197483</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5140533529286309</v>
+        <v>1.403223110442344</v>
       </c>
       <c r="O23">
-        <v>3.002551951121205</v>
+        <v>3.192574252555232</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.752623671980928</v>
+        <v>0.6036206649034455</v>
       </c>
       <c r="C24">
-        <v>0.2687113563272447</v>
+        <v>0.08050440894604094</v>
       </c>
       <c r="D24">
-        <v>0.2955984720604334</v>
+        <v>0.1044422081050413</v>
       </c>
       <c r="E24">
-        <v>2.106205974986082</v>
+        <v>0.5977906810258276</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007796743495069207</v>
+        <v>0.002429855520827943</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.883929080414077</v>
+        <v>0.5977698947378371</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5773849452114526</v>
+        <v>1.429259810177591</v>
       </c>
       <c r="O24">
-        <v>2.690281195351503</v>
+        <v>3.153250473619835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.424791754876509</v>
+        <v>0.5137841628844058</v>
       </c>
       <c r="C25">
-        <v>0.2218325475394209</v>
+        <v>0.06694361101070001</v>
       </c>
       <c r="D25">
-        <v>0.2399014700351643</v>
+        <v>0.08948369256359001</v>
       </c>
       <c r="E25">
-        <v>1.683613949055115</v>
+        <v>0.4912412928645296</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007886897964722817</v>
+        <v>0.002435126231089175</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.532688328273878</v>
+        <v>0.5001046564064779</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6518096042533479</v>
+        <v>1.459436900154866</v>
       </c>
       <c r="O25">
-        <v>2.384434452700759</v>
+        <v>3.118198119162344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4480592728037891</v>
+        <v>1.187461388624456</v>
       </c>
       <c r="C2">
-        <v>0.05689896751667334</v>
+        <v>0.1878067761347211</v>
       </c>
       <c r="D2">
-        <v>0.07858837496944204</v>
+        <v>0.1998408008076353</v>
       </c>
       <c r="E2">
-        <v>0.4132022044686465</v>
+        <v>1.385509524485116</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002439320690758406</v>
+        <v>0.0007955595505781428</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.428420881401621</v>
+        <v>1.278190798185364</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.483451473734611</v>
+        <v>0.7112854979642691</v>
       </c>
       <c r="O2">
-        <v>3.098667715785666</v>
+        <v>2.180914144904307</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4037757052505526</v>
+        <v>1.028432008216271</v>
       </c>
       <c r="C3">
-        <v>0.05005304256543752</v>
+        <v>0.1649393676223099</v>
       </c>
       <c r="D3">
-        <v>0.07127684251783251</v>
+        <v>0.1731420184148931</v>
       </c>
       <c r="E3">
-        <v>0.3605282455053498</v>
+        <v>1.189379036606894</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00244236072053212</v>
+        <v>0.0008003771146307158</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3799761155893862</v>
+        <v>1.107505138332613</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.500844144952591</v>
+        <v>0.754256565594762</v>
       </c>
       <c r="O3">
-        <v>3.089321637985989</v>
+        <v>2.054332854092621</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3767124667835162</v>
+        <v>0.9314701910817007</v>
       </c>
       <c r="C4">
-        <v>0.04583028563760649</v>
+        <v>0.1509603385009228</v>
       </c>
       <c r="D4">
-        <v>0.0668227801316732</v>
+        <v>0.1569290568088348</v>
       </c>
       <c r="E4">
-        <v>0.3282780526915587</v>
+        <v>1.071219308187153</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002444325254653591</v>
+        <v>0.0008034200986588954</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3502968897492735</v>
+        <v>1.003357086614926</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.512073873888571</v>
+        <v>0.7818789086038294</v>
       </c>
       <c r="O4">
-        <v>3.085493650046459</v>
+        <v>1.981564133385262</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3657160698450639</v>
+        <v>0.8921007940150218</v>
       </c>
       <c r="C5">
-        <v>0.04410460447228104</v>
+        <v>0.1452748409344622</v>
       </c>
       <c r="D5">
-        <v>0.06501655246559324</v>
+        <v>0.1503617168647651</v>
       </c>
       <c r="E5">
-        <v>0.3151571629653631</v>
+        <v>1.023551471255558</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002445150526642396</v>
+        <v>0.000804682207690954</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3382190719133575</v>
+        <v>0.9610494565102101</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.516788368825747</v>
+        <v>0.7934358827745918</v>
       </c>
       <c r="O5">
-        <v>3.084413133244681</v>
+        <v>1.953067415488249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3638920691935539</v>
+        <v>0.8855713997197086</v>
       </c>
       <c r="C6">
-        <v>0.04381776174791696</v>
+        <v>0.1443313139005369</v>
       </c>
       <c r="D6">
-        <v>0.06471716288500318</v>
+        <v>0.1492734441374068</v>
       </c>
       <c r="E6">
-        <v>0.3129796858374618</v>
+        <v>1.015663059760172</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002445289057009643</v>
+        <v>0.0008048931324120174</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3362145715712757</v>
+        <v>0.9540315129627572</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.517579555016024</v>
+        <v>0.7953727697965682</v>
       </c>
       <c r="O6">
-        <v>3.084262640892462</v>
+        <v>1.948402976080445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3765640353935282</v>
+        <v>0.9309386973831408</v>
       </c>
       <c r="C7">
-        <v>0.04580703224610261</v>
+        <v>0.1508836226805386</v>
       </c>
       <c r="D7">
-        <v>0.06679838495688273</v>
+        <v>0.1568403344626148</v>
       </c>
       <c r="E7">
-        <v>0.3281010157518836</v>
+        <v>1.070574595465558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002444336284352699</v>
+        <v>0.0008034370296883615</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3501339362926785</v>
+        <v>1.002786009550192</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.512136895497928</v>
+        <v>0.7820335662477582</v>
       </c>
       <c r="O7">
-        <v>3.085477138011157</v>
+        <v>1.981175243867824</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4327640008776825</v>
+        <v>1.132468582331143</v>
       </c>
       <c r="C8">
-        <v>0.05454249519971199</v>
+        <v>0.179906514242532</v>
       </c>
       <c r="D8">
-        <v>0.07606002570723547</v>
+        <v>0.1905940868812337</v>
       </c>
       <c r="E8">
-        <v>0.3950200837645355</v>
+        <v>1.317359200384189</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002440348612912386</v>
+        <v>0.0007972034449383062</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4117034584250803</v>
+        <v>1.219183434907706</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.489334107619165</v>
+        <v>0.7258383689856061</v>
       </c>
       <c r="O8">
-        <v>3.095048038384107</v>
+        <v>2.136185923526426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5439796911210806</v>
+        <v>1.534491002948954</v>
       </c>
       <c r="C9">
-        <v>0.07152072046636704</v>
+        <v>0.2375310503365</v>
       </c>
       <c r="D9">
-        <v>0.09450384746519092</v>
+        <v>0.2584956848157844</v>
       </c>
       <c r="E9">
-        <v>0.5270626341443148</v>
+        <v>1.823611296630006</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002433302291184936</v>
+        <v>0.0007856194029301721</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5329673495053555</v>
+        <v>1.650252746473598</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.448992527284084</v>
+        <v>0.625976722032707</v>
       </c>
       <c r="O9">
-        <v>3.12902664994391</v>
+        <v>2.483782084259133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.626312568815905</v>
+        <v>1.836176157581235</v>
       </c>
       <c r="C10">
-        <v>0.08390509927934886</v>
+        <v>0.2806458935207132</v>
       </c>
       <c r="D10">
-        <v>0.1082306247403295</v>
+        <v>0.3098522011437126</v>
       </c>
       <c r="E10">
-        <v>0.6246985393689783</v>
+        <v>2.215959117801191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002428591783212716</v>
+        <v>0.0007774464559205442</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6223930653313516</v>
+        <v>1.973408774407147</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.422027968160325</v>
+        <v>0.5596846277162193</v>
       </c>
       <c r="O10">
-        <v>3.163341697906418</v>
+        <v>2.772344770567656</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6639055258974906</v>
+        <v>1.975330772779728</v>
       </c>
       <c r="C11">
-        <v>0.08952039028959291</v>
+        <v>0.3005164341626454</v>
       </c>
       <c r="D11">
-        <v>0.1145145458197874</v>
+        <v>0.3336393108486675</v>
       </c>
       <c r="E11">
-        <v>0.6692794292695652</v>
+        <v>2.400642896264017</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002426549039695274</v>
+        <v>0.0007737887405758119</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6631507444783722</v>
+        <v>2.122410496808016</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.41034345571968</v>
+        <v>0.5312552526086591</v>
       </c>
       <c r="O11">
-        <v>3.181000559544287</v>
+        <v>2.912467233715915</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6781610370887279</v>
+        <v>2.028350317542419</v>
       </c>
       <c r="C12">
-        <v>0.09164414064673565</v>
+        <v>0.3080861429771176</v>
       </c>
       <c r="D12">
-        <v>0.1168998393693528</v>
+        <v>0.3427175208211963</v>
       </c>
       <c r="E12">
-        <v>0.6861870194360193</v>
+        <v>2.471640408062584</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002425789815751684</v>
+        <v>0.0007724111115251951</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6785958202061977</v>
+        <v>2.179175321160812</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.406002676137067</v>
+        <v>0.5207562684848277</v>
       </c>
       <c r="O12">
-        <v>3.187983419499744</v>
+        <v>2.966954634138119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.675089976282095</v>
+        <v>2.016916329601514</v>
       </c>
       <c r="C13">
-        <v>0.09118687017169691</v>
+        <v>0.3064537214873582</v>
       </c>
       <c r="D13">
-        <v>0.1163858694477256</v>
+        <v>0.3407590677210521</v>
       </c>
       <c r="E13">
-        <v>0.6825444901209181</v>
+        <v>2.456299645052127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002425952692556228</v>
+        <v>0.0007727074967432153</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6752689581234108</v>
+        <v>2.16693390564302</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.406933805879593</v>
+        <v>0.5230052449737315</v>
       </c>
       <c r="O13">
-        <v>3.186466358873474</v>
+        <v>2.955153761383002</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6650779379752407</v>
+        <v>1.97968591482217</v>
       </c>
       <c r="C14">
-        <v>0.08969516532290811</v>
+        <v>0.301138243231776</v>
       </c>
       <c r="D14">
-        <v>0.1147106708065451</v>
+        <v>0.3343847092950227</v>
       </c>
       <c r="E14">
-        <v>0.6706698992048246</v>
+        <v>2.406461568665136</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002426486291168384</v>
+        <v>0.000773675259832998</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6644211997873981</v>
+        <v>2.127073406159184</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.409984654527314</v>
+        <v>0.5303860406623215</v>
       </c>
       <c r="O14">
-        <v>3.181569107681071</v>
+        <v>2.916920430019104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6589478589540647</v>
+        <v>1.956925045010451</v>
       </c>
       <c r="C15">
-        <v>0.0887811097635165</v>
+        <v>0.2978885001007257</v>
       </c>
       <c r="D15">
-        <v>0.1136853074358015</v>
+        <v>0.3304897145347212</v>
       </c>
       <c r="E15">
-        <v>0.6633997836101173</v>
+        <v>2.376078018921191</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002426814998438354</v>
+        <v>0.0007742689777888418</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6577780673564462</v>
+        <v>2.102703825695158</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.411864319471892</v>
+        <v>0.5349422835267283</v>
       </c>
       <c r="O15">
-        <v>3.178607962454578</v>
+        <v>2.893691943698315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6238585703800652</v>
+        <v>1.82712472342962</v>
       </c>
       <c r="C16">
-        <v>0.08353775697099763</v>
+        <v>0.2793531613791913</v>
       </c>
       <c r="D16">
-        <v>0.1078207533576858</v>
+        <v>0.3083069939845586</v>
       </c>
       <c r="E16">
-        <v>0.6217885746849277</v>
+        <v>2.204028414350617</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002428727289110012</v>
+        <v>0.0007776866088911163</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6197310043177708</v>
+        <v>1.963715820463023</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.422803305362187</v>
+        <v>0.561578827306132</v>
       </c>
       <c r="O16">
-        <v>3.162228980456632</v>
+        <v>2.763378304073228</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6023679964891642</v>
+        <v>1.748020651842012</v>
       </c>
       <c r="C17">
-        <v>0.08031641836734593</v>
+        <v>0.2680537575553075</v>
       </c>
       <c r="D17">
-        <v>0.1042331832064036</v>
+        <v>0.2948138660241284</v>
       </c>
       <c r="E17">
-        <v>0.5963052844230674</v>
+        <v>2.100184043137418</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002429926000061284</v>
+        <v>0.0007797978269413958</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5964101242134632</v>
+        <v>1.878999149519927</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.429663193938524</v>
+        <v>0.5783742730268564</v>
       </c>
       <c r="O17">
-        <v>3.152706610919921</v>
+        <v>2.685806588882883</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5900203093962091</v>
+        <v>1.702699245004396</v>
       </c>
       <c r="C18">
-        <v>0.07846185465092503</v>
+        <v>0.2615783234259226</v>
       </c>
       <c r="D18">
-        <v>0.102173428174865</v>
+        <v>0.2870923402294636</v>
       </c>
       <c r="E18">
-        <v>0.5816634618532817</v>
+        <v>2.041027922347283</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002430624892210231</v>
+        <v>0.000781017888294181</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5830038693969186</v>
+        <v>1.830456713809298</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.4336635682318</v>
+        <v>0.5881959501342102</v>
       </c>
       <c r="O18">
-        <v>3.147422362354519</v>
+        <v>2.642012701512158</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5858418534452028</v>
+        <v>1.687383209478782</v>
       </c>
       <c r="C19">
-        <v>0.07783363293845014</v>
+        <v>0.2593896874610806</v>
       </c>
       <c r="D19">
-        <v>0.1014766687985258</v>
+        <v>0.284484451122097</v>
       </c>
       <c r="E19">
-        <v>0.5767085945937396</v>
+        <v>2.021092179801343</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002430863146245922</v>
+        <v>0.0007814320008179276</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5784659989246563</v>
+        <v>1.814051189418024</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.43502742231189</v>
+        <v>0.5915485925708559</v>
       </c>
       <c r="O19">
-        <v>3.145666277434827</v>
+        <v>2.62732184866195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6046543477949058</v>
+        <v>1.756422740173633</v>
       </c>
       <c r="C20">
-        <v>0.0806595148461895</v>
+        <v>0.2692540911573644</v>
       </c>
       <c r="D20">
-        <v>0.104614700957967</v>
+        <v>0.2962460927204802</v>
       </c>
       <c r="E20">
-        <v>0.5990164069219617</v>
+        <v>2.111178053164991</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00242979742024371</v>
+        <v>0.0007795724979092221</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5988919171689986</v>
+        <v>1.887997931114967</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.428927279236945</v>
+        <v>0.5765695406082259</v>
       </c>
       <c r="O20">
-        <v>3.153700323970554</v>
+        <v>2.693977964445196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6680181781960641</v>
+        <v>1.990612159922364</v>
       </c>
       <c r="C21">
-        <v>0.09013338671294946</v>
+        <v>0.3026982323435021</v>
       </c>
       <c r="D21">
-        <v>0.1152025621294968</v>
+        <v>0.3362550182647794</v>
       </c>
       <c r="E21">
-        <v>0.6741570394139984</v>
+        <v>2.421069933892426</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002426329172390309</v>
+        <v>0.0007733908117549815</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6676071509722306</v>
+        <v>2.138771683467155</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.409086267679022</v>
+        <v>0.5282107319514253</v>
       </c>
       <c r="O21">
-        <v>3.182999510472996</v>
+        <v>2.928110482893288</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7095458748505052</v>
+        <v>2.145587872897067</v>
       </c>
       <c r="C22">
-        <v>0.0963097362187284</v>
+        <v>0.3248236997194738</v>
       </c>
       <c r="D22">
-        <v>0.1221556287339212</v>
+        <v>0.3628194407191643</v>
       </c>
       <c r="E22">
-        <v>0.7234169304066143</v>
+        <v>2.629887457330753</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002424145898990014</v>
+        <v>0.0007693936049662718</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.712580753773409</v>
+        <v>2.304684564702256</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.396608114160479</v>
+        <v>0.4981692738180818</v>
       </c>
       <c r="O22">
-        <v>3.203873134691946</v>
+        <v>3.089525064187967</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6873712204096307</v>
+        <v>2.062681156117236</v>
       </c>
       <c r="C23">
-        <v>0.09301470507438125</v>
+        <v>0.3129874592479496</v>
       </c>
       <c r="D23">
-        <v>0.1184415928086935</v>
+        <v>0.348600048032921</v>
       </c>
       <c r="E23">
-        <v>0.6971115273134529</v>
+        <v>2.517800096997007</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002425303543885106</v>
+        <v>0.0007715234931868764</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6885716553197483</v>
+        <v>2.21592967115572</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.403223110442344</v>
+        <v>0.5140533529286415</v>
       </c>
       <c r="O23">
-        <v>3.192574252555232</v>
+        <v>3.002551951121234</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6036206649034455</v>
+        <v>1.752623671980956</v>
       </c>
       <c r="C24">
-        <v>0.08050440894604094</v>
+        <v>0.268711356327259</v>
       </c>
       <c r="D24">
-        <v>0.1044422081050413</v>
+        <v>0.2955984720604334</v>
       </c>
       <c r="E24">
-        <v>0.5977906810258276</v>
+        <v>2.106205974986068</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002429855520827943</v>
+        <v>0.0007796743494745529</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5977698947378371</v>
+        <v>1.883929080414106</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.429259810177591</v>
+        <v>0.577384945211449</v>
       </c>
       <c r="O24">
-        <v>3.153250473619835</v>
+        <v>2.690281195351503</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5137841628844058</v>
+        <v>1.42479175487648</v>
       </c>
       <c r="C25">
-        <v>0.06694361101070001</v>
+        <v>0.2218325475395346</v>
       </c>
       <c r="D25">
-        <v>0.08948369256359001</v>
+        <v>0.2399014700353632</v>
       </c>
       <c r="E25">
-        <v>0.4912412928645296</v>
+        <v>1.683613949055143</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002435126231089175</v>
+        <v>0.0007886897964426987</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5001046564064779</v>
+        <v>1.532688328273849</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.459436900154866</v>
+        <v>0.6518096042533088</v>
       </c>
       <c r="O25">
-        <v>3.118198119162344</v>
+        <v>2.384434452700731</v>
       </c>
     </row>
   </sheetData>
